--- a/experimental results/e3000_CartPole__compare.xlsx
+++ b/experimental results/e3000_CartPole__compare.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="31">
   <si>
     <t>domain</t>
   </si>
@@ -70,9 +70,6 @@
     <t>[0,0]</t>
   </si>
   <si>
-    <t>[1,0]</t>
-  </si>
-  <si>
     <t>SIFU5</t>
   </si>
   <si>
@@ -85,10 +82,13 @@
     <t>[1,1]</t>
   </si>
   <si>
+    <t>[1,1] | [1,0]</t>
+  </si>
+  <si>
     <t>[1,0] | [1,1]</t>
   </si>
   <si>
-    <t>[1,1] | [1,0]</t>
+    <t>[1,0]</t>
   </si>
   <si>
     <t>candidate</t>
@@ -180,8 +180,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:N56" totalsRowShown="0">
-  <autoFilter ref="A1:N56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:N53" totalsRowShown="0">
+  <autoFilter ref="A1:N53"/>
   <tableColumns count="14">
     <tableColumn id="1" name="domain"/>
     <tableColumn id="2" name="seed"/>
@@ -559,14 +559,11 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -575,10 +572,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20.00260353088379</v>
+        <v>19.08659934997559</v>
       </c>
       <c r="N2">
-        <v>20.00260353088379</v>
+        <v>19.08659934997559</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -598,13 +595,13 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -616,13 +613,13 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>9.025096893310547</v>
+        <v>10.3302001953125</v>
       </c>
       <c r="M3">
-        <v>3.974199295043945</v>
+        <v>4.140377044677734</v>
       </c>
       <c r="N3">
-        <v>12.99929618835449</v>
+        <v>14.47057723999023</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -648,7 +645,7 @@
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -663,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.89617538452148</v>
+        <v>13.12780380249023</v>
       </c>
       <c r="N4">
-        <v>17.89617538452148</v>
+        <v>13.12780380249023</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -686,13 +683,13 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -704,13 +701,13 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>3.999471664428711</v>
+        <v>2.993106842041016</v>
       </c>
       <c r="M5">
-        <v>7.048606872558594</v>
+        <v>3.978967666625977</v>
       </c>
       <c r="N5">
-        <v>11.0480785369873</v>
+        <v>6.972074508666992</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -736,7 +733,7 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -751,10 +748,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>9.982824325561523</v>
+        <v>8.997917175292969</v>
       </c>
       <c r="N6">
-        <v>9.982824325561523</v>
+        <v>8.997917175292969</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -774,13 +771,13 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -792,13 +789,13 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <v>3.000259399414062</v>
+        <v>1.980066299438477</v>
       </c>
       <c r="M7">
-        <v>3.000020980834961</v>
+        <v>3.986597061157227</v>
       </c>
       <c r="N7">
-        <v>6.000280380249023</v>
+        <v>5.966663360595703</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -839,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>8.55708122253418</v>
+        <v>7.527828216552734</v>
       </c>
       <c r="N8">
-        <v>8.55708122253418</v>
+        <v>7.527828216552734</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -862,7 +859,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -880,13 +877,13 @@
         <v>2</v>
       </c>
       <c r="L9">
-        <v>2.998828887939453</v>
+        <v>1.991033554077148</v>
       </c>
       <c r="M9">
-        <v>2.997159957885742</v>
+        <v>2.999067306518555</v>
       </c>
       <c r="N9">
-        <v>5.995988845825195</v>
+        <v>4.990100860595703</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -912,7 +909,7 @@
         <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -927,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>7.00068473815918</v>
+        <v>8.000850677490234</v>
       </c>
       <c r="N10">
-        <v>7.00068473815918</v>
+        <v>8.000850677490234</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -950,13 +947,13 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -968,13 +965,13 @@
         <v>2</v>
       </c>
       <c r="L11">
-        <v>2.01725959777832</v>
+        <v>1.998186111450195</v>
       </c>
       <c r="M11">
-        <v>3.986358642578125</v>
+        <v>5.105733871459961</v>
       </c>
       <c r="N11">
-        <v>6.003618240356445</v>
+        <v>7.103919982910156</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -997,10 +994,10 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -1015,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>30.52020072937012</v>
+        <v>22.98259735107422</v>
       </c>
       <c r="N12">
-        <v>30.52020072937012</v>
+        <v>22.98259735107422</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1038,14 +1035,14 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
         <v>21</v>
       </c>
-      <c r="H13" t="s">
-        <v>22</v>
-      </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
@@ -1056,13 +1053,13 @@
         <v>2</v>
       </c>
       <c r="L13">
-        <v>11.02662086486816</v>
+        <v>10.9105110168457</v>
       </c>
       <c r="M13">
-        <v>2.973318099975586</v>
+        <v>2.083539962768555</v>
       </c>
       <c r="N13">
-        <v>13.99993896484375</v>
+        <v>12.99405097961426</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1085,10 +1082,10 @@
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -1103,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>25.24566650390625</v>
+        <v>21.12793922424316</v>
       </c>
       <c r="N14">
-        <v>25.24566650390625</v>
+        <v>21.12793922424316</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1126,14 +1123,14 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
         <v>21</v>
       </c>
-      <c r="H15" t="s">
-        <v>22</v>
-      </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
@@ -1144,13 +1141,13 @@
         <v>2</v>
       </c>
       <c r="L15">
-        <v>9.564876556396484</v>
+        <v>10.03432273864746</v>
       </c>
       <c r="M15">
-        <v>7.107257843017578</v>
+        <v>4.091501235961914</v>
       </c>
       <c r="N15">
-        <v>16.67213439941406</v>
+        <v>14.12582397460938</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1173,11 +1170,11 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
         <v>21</v>
       </c>
-      <c r="H16" t="s">
-        <v>23</v>
-      </c>
       <c r="I16" t="b">
         <v>1</v>
       </c>
@@ -1191,10 +1188,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.10810852050781</v>
+        <v>8.099555969238281</v>
       </c>
       <c r="N16">
-        <v>15.10810852050781</v>
+        <v>8.099555969238281</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1214,14 +1211,14 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
         <v>21</v>
       </c>
-      <c r="H17" t="s">
-        <v>23</v>
-      </c>
       <c r="I17" t="b">
         <v>1</v>
       </c>
@@ -1232,13 +1229,13 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <v>4.998683929443359</v>
+        <v>3.016948699951172</v>
       </c>
       <c r="M17">
-        <v>5.105733871459961</v>
+        <v>3.107309341430664</v>
       </c>
       <c r="N17">
-        <v>10.10441780090332</v>
+        <v>6.124258041381836</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1261,11 +1258,11 @@
         <v>15</v>
       </c>
       <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
         <v>21</v>
       </c>
-      <c r="H18" t="s">
-        <v>23</v>
-      </c>
       <c r="I18" t="b">
         <v>1</v>
       </c>
@@ -1279,10 +1276,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>10.02907752990723</v>
+        <v>13.3056640625</v>
       </c>
       <c r="N18">
-        <v>10.02907752990723</v>
+        <v>13.3056640625</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1302,14 +1299,14 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
         <v>21</v>
       </c>
-      <c r="H19" t="s">
-        <v>23</v>
-      </c>
       <c r="I19" t="b">
         <v>1</v>
       </c>
@@ -1320,13 +1317,13 @@
         <v>2</v>
       </c>
       <c r="L19">
-        <v>2.537250518798828</v>
+        <v>2.02178955078125</v>
       </c>
       <c r="M19">
-        <v>5.019664764404297</v>
+        <v>6.050825119018555</v>
       </c>
       <c r="N19">
-        <v>7.556915283203125</v>
+        <v>8.072614669799805</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1349,10 +1346,10 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -1367,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>8.998394012451172</v>
+        <v>10.24436950683594</v>
       </c>
       <c r="N20">
-        <v>8.998394012451172</v>
+        <v>10.24436950683594</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1390,13 +1387,13 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -1408,13 +1405,13 @@
         <v>2</v>
       </c>
       <c r="L21">
-        <v>2.999782562255859</v>
+        <v>3.005027770996094</v>
       </c>
       <c r="M21">
-        <v>3.995895385742188</v>
+        <v>4.998683929443359</v>
       </c>
       <c r="N21">
-        <v>6.995677947998047</v>
+        <v>8.003711700439453</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1437,10 +1434,10 @@
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -1455,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.03491401672363</v>
+        <v>9.993076324462891</v>
       </c>
       <c r="N22">
-        <v>15.03491401672363</v>
+        <v>9.993076324462891</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1478,13 +1475,13 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
@@ -1496,13 +1493,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.513378143310547</v>
+        <v>9.976387023925781</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9.513378143310547</v>
+        <v>9.976387023925781</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1525,7 +1522,7 @@
         <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H24" t="s">
         <v>19</v>
@@ -1543,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>12.9997730255127</v>
+        <v>8.572816848754883</v>
       </c>
       <c r="N24">
-        <v>12.9997730255127</v>
+        <v>8.572816848754883</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1566,10 +1563,10 @@
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
         <v>19</v>
@@ -1584,13 +1581,13 @@
         <v>2</v>
       </c>
       <c r="L25">
-        <v>3.999710083007812</v>
+        <v>3.000020980834961</v>
       </c>
       <c r="M25">
-        <v>4.033565521240234</v>
+        <v>2.000570297241211</v>
       </c>
       <c r="N25">
-        <v>8.033275604248047</v>
+        <v>5.000591278076172</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1613,10 +1610,10 @@
         <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
@@ -1631,10 +1628,10 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>12.00008392333984</v>
+        <v>12.00294494628906</v>
       </c>
       <c r="N26">
-        <v>12.00008392333984</v>
+        <v>12.00294494628906</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1654,14 +1651,14 @@
         <v>3</v>
       </c>
       <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" t="s">
         <v>18</v>
       </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" t="s">
-        <v>19</v>
-      </c>
       <c r="I27" t="b">
         <v>1</v>
       </c>
@@ -1672,13 +1669,13 @@
         <v>2</v>
       </c>
       <c r="L27">
-        <v>3.031730651855469</v>
+        <v>2.997636795043945</v>
       </c>
       <c r="M27">
-        <v>4.981517791748047</v>
+        <v>5.015134811401367</v>
       </c>
       <c r="N27">
-        <v>8.013248443603516</v>
+        <v>8.012771606445312</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1701,16 +1698,16 @@
         <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -1719,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>10.99991798400879</v>
+        <v>7.03120231628418</v>
       </c>
       <c r="N28">
-        <v>10.99991798400879</v>
+        <v>7.03120231628418</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1742,31 +1739,31 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>3.013134002685547</v>
+        <v>8.997678756713867</v>
       </c>
       <c r="M29">
-        <v>3.988265991210938</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>7.001399993896484</v>
+        <v>8.997678756713867</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1789,7 +1786,7 @@
         <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H30" t="s">
         <v>19</v>
@@ -1807,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>7.001161575317383</v>
+        <v>8.00013542175293</v>
       </c>
       <c r="N30">
-        <v>7.001161575317383</v>
+        <v>8.00013542175293</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1830,10 +1827,10 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H31" t="s">
         <v>19</v>
@@ -1848,13 +1845,13 @@
         <v>2</v>
       </c>
       <c r="L31">
-        <v>2.000331878662109</v>
+        <v>3.009796142578125</v>
       </c>
       <c r="M31">
-        <v>4.015445709228516</v>
+        <v>3.986358642578125</v>
       </c>
       <c r="N31">
-        <v>6.015777587890625</v>
+        <v>6.99615478515625</v>
       </c>
     </row>
   </sheetData>
@@ -1867,7 +1864,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1925,13 +1922,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1949,16 +1946,16 @@
         <v>3</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.3302001953125</v>
       </c>
       <c r="M2">
-        <v>20.00260353088379</v>
+        <v>4.140377044677734</v>
       </c>
       <c r="N2">
-        <v>20.00260353088379</v>
+        <v>14.47057723999023</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1969,19 +1966,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0.2</v>
@@ -1996,13 +1993,13 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>9.025096893310547</v>
+        <v>10.3302001953125</v>
       </c>
       <c r="M3">
-        <v>3.974199295043945</v>
+        <v>4.140377044677734</v>
       </c>
       <c r="N3">
-        <v>12.99929618835449</v>
+        <v>14.47057723999023</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2013,22 +2010,22 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I4">
         <v>100</v>
@@ -2037,16 +2034,16 @@
         <v>3</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>9.025096893310547</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>3.974199295043945</v>
+        <v>13.12780380249023</v>
       </c>
       <c r="N4">
-        <v>12.99929618835449</v>
+        <v>13.12780380249023</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2066,7 +2063,7 @@
         <v>16</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -2087,10 +2084,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.89617538452148</v>
+        <v>13.12780380249023</v>
       </c>
       <c r="N5">
-        <v>17.89617538452148</v>
+        <v>13.12780380249023</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2101,16 +2098,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -2125,16 +2122,16 @@
         <v>3</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>2.993106842041016</v>
       </c>
       <c r="M6">
-        <v>17.89617538452148</v>
+        <v>3.978967666625977</v>
       </c>
       <c r="N6">
-        <v>17.89617538452148</v>
+        <v>6.972074508666992</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2145,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -2154,7 +2151,7 @@
         <v>16</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -2172,13 +2169,13 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <v>3.999471664428711</v>
+        <v>2.993106842041016</v>
       </c>
       <c r="M7">
-        <v>7.048606872558594</v>
+        <v>3.978967666625977</v>
       </c>
       <c r="N7">
-        <v>11.0480785369873</v>
+        <v>6.972074508666992</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2189,22 +2186,22 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I8">
         <v>100</v>
@@ -2213,16 +2210,16 @@
         <v>3</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>3.999471664428711</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>7.048606872558594</v>
+        <v>8.997917175292969</v>
       </c>
       <c r="N8">
-        <v>11.0480785369873</v>
+        <v>8.997917175292969</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2242,7 +2239,7 @@
         <v>16</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -2263,10 +2260,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>9.982824325561523</v>
+        <v>8.997917175292969</v>
       </c>
       <c r="N9">
-        <v>9.982824325561523</v>
+        <v>8.997917175292969</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2277,16 +2274,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -2301,16 +2298,16 @@
         <v>3</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.980066299438477</v>
       </c>
       <c r="M10">
-        <v>9.982824325561523</v>
+        <v>3.986597061157227</v>
       </c>
       <c r="N10">
-        <v>9.982824325561523</v>
+        <v>5.966663360595703</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2321,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -2330,7 +2327,7 @@
         <v>16</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -2348,13 +2345,13 @@
         <v>2</v>
       </c>
       <c r="L11">
-        <v>3.000259399414062</v>
+        <v>1.980066299438477</v>
       </c>
       <c r="M11">
-        <v>3.000020980834961</v>
+        <v>3.986597061157227</v>
       </c>
       <c r="N11">
-        <v>6.000280380249023</v>
+        <v>5.966663360595703</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2365,22 +2362,22 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I12">
         <v>100</v>
@@ -2389,16 +2386,16 @@
         <v>3</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>3.000259399414062</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>3.000020980834961</v>
+        <v>7.527828216552734</v>
       </c>
       <c r="N12">
-        <v>6.000280380249023</v>
+        <v>7.527828216552734</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2415,10 +2412,10 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -2439,10 +2436,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>8.55708122253418</v>
+        <v>7.527828216552734</v>
       </c>
       <c r="N13">
-        <v>8.55708122253418</v>
+        <v>7.527828216552734</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2453,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -2462,7 +2459,7 @@
         <v>16</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -2477,16 +2474,16 @@
         <v>3</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.991033554077148</v>
       </c>
       <c r="M14">
-        <v>8.55708122253418</v>
+        <v>2.999067306518555</v>
       </c>
       <c r="N14">
-        <v>8.55708122253418</v>
+        <v>4.990100860595703</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2497,16 +2494,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -2524,13 +2521,13 @@
         <v>2</v>
       </c>
       <c r="L15">
-        <v>2.998828887939453</v>
+        <v>1.991033554077148</v>
       </c>
       <c r="M15">
-        <v>2.997159957885742</v>
+        <v>2.999067306518555</v>
       </c>
       <c r="N15">
-        <v>5.995988845825195</v>
+        <v>4.990100860595703</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2541,22 +2538,22 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>100</v>
@@ -2565,16 +2562,16 @@
         <v>3</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>2.998828887939453</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>2.997159957885742</v>
+        <v>8.000850677490234</v>
       </c>
       <c r="N16">
-        <v>5.995988845825195</v>
+        <v>8.000850677490234</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2591,13 +2588,13 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2615,10 +2612,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>7.00068473815918</v>
+        <v>8.000850677490234</v>
       </c>
       <c r="N17">
-        <v>7.00068473815918</v>
+        <v>8.000850677490234</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2629,19 +2626,19 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2653,16 +2650,16 @@
         <v>3</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.998186111450195</v>
       </c>
       <c r="M18">
-        <v>7.00068473815918</v>
+        <v>5.105733871459961</v>
       </c>
       <c r="N18">
-        <v>7.00068473815918</v>
+        <v>7.103919982910156</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2673,19 +2670,19 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2700,13 +2697,13 @@
         <v>2</v>
       </c>
       <c r="L19">
-        <v>2.01725959777832</v>
+        <v>1.998186111450195</v>
       </c>
       <c r="M19">
-        <v>3.986358642578125</v>
+        <v>5.105733871459961</v>
       </c>
       <c r="N19">
-        <v>6.003618240356445</v>
+        <v>7.103919982910156</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2717,22 +2714,22 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I20">
         <v>100</v>
@@ -2741,16 +2738,16 @@
         <v>3</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>2.01725959777832</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>3.986358642578125</v>
+        <v>22.98259735107422</v>
       </c>
       <c r="N20">
-        <v>6.003618240356445</v>
+        <v>22.98259735107422</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2761,13 +2758,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2785,16 +2782,16 @@
         <v>3</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.9105110168457</v>
       </c>
       <c r="M21">
-        <v>30.52020072937012</v>
+        <v>2.083539962768555</v>
       </c>
       <c r="N21">
-        <v>30.52020072937012</v>
+        <v>12.99405097961426</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2805,16 +2802,16 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -2832,13 +2829,13 @@
         <v>2</v>
       </c>
       <c r="L22">
-        <v>11.02662086486816</v>
+        <v>10.9105110168457</v>
       </c>
       <c r="M22">
-        <v>2.973318099975586</v>
+        <v>2.083539962768555</v>
       </c>
       <c r="N22">
-        <v>13.99993896484375</v>
+        <v>12.99405097961426</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2849,22 +2846,22 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I23">
         <v>100</v>
@@ -2873,16 +2870,16 @@
         <v>3</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>11.02662086486816</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>2.973318099975586</v>
+        <v>21.12793922424316</v>
       </c>
       <c r="N23">
-        <v>13.99993896484375</v>
+        <v>21.12793922424316</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2893,13 +2890,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -2917,16 +2914,16 @@
         <v>3</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.03432273864746</v>
       </c>
       <c r="M24">
-        <v>25.24566650390625</v>
+        <v>4.091501235961914</v>
       </c>
       <c r="N24">
-        <v>25.24566650390625</v>
+        <v>14.12582397460938</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2937,16 +2934,16 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -2964,13 +2961,13 @@
         <v>2</v>
       </c>
       <c r="L25">
-        <v>9.564876556396484</v>
+        <v>10.03432273864746</v>
       </c>
       <c r="M25">
-        <v>7.107257843017578</v>
+        <v>4.091501235961914</v>
       </c>
       <c r="N25">
-        <v>16.67213439941406</v>
+        <v>14.12582397460938</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2981,22 +2978,22 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I26">
         <v>100</v>
@@ -3005,16 +3002,16 @@
         <v>3</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>9.564876556396484</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>7.107257843017578</v>
+        <v>8.099555969238281</v>
       </c>
       <c r="N26">
-        <v>16.67213439941406</v>
+        <v>8.099555969238281</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -3028,16 +3025,16 @@
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0.6</v>
@@ -3055,10 +3052,10 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>15.10810852050781</v>
+        <v>8.099555969238281</v>
       </c>
       <c r="N27">
-        <v>15.10810852050781</v>
+        <v>8.099555969238281</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -3069,19 +3066,19 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>0.6</v>
@@ -3093,16 +3090,16 @@
         <v>3</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>3.016948699951172</v>
       </c>
       <c r="M28">
-        <v>15.10810852050781</v>
+        <v>3.107309341430664</v>
       </c>
       <c r="N28">
-        <v>15.10810852050781</v>
+        <v>6.124258041381836</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -3113,19 +3110,19 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0.6</v>
@@ -3140,13 +3137,13 @@
         <v>2</v>
       </c>
       <c r="L29">
-        <v>4.998683929443359</v>
+        <v>3.016948699951172</v>
       </c>
       <c r="M29">
-        <v>5.105733871459961</v>
+        <v>3.107309341430664</v>
       </c>
       <c r="N29">
-        <v>10.10441780090332</v>
+        <v>6.124258041381836</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -3157,22 +3154,22 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I30">
         <v>100</v>
@@ -3181,16 +3178,16 @@
         <v>3</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>4.998683929443359</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>5.105733871459961</v>
+        <v>13.3056640625</v>
       </c>
       <c r="N30">
-        <v>10.10441780090332</v>
+        <v>13.3056640625</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -3204,16 +3201,16 @@
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>0.8</v>
@@ -3231,10 +3228,10 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>10.02907752990723</v>
+        <v>13.3056640625</v>
       </c>
       <c r="N31">
-        <v>10.02907752990723</v>
+        <v>13.3056640625</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3245,19 +3242,19 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>0.8</v>
@@ -3269,16 +3266,16 @@
         <v>3</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>2.02178955078125</v>
       </c>
       <c r="M32">
-        <v>10.02907752990723</v>
+        <v>6.050825119018555</v>
       </c>
       <c r="N32">
-        <v>10.02907752990723</v>
+        <v>8.072614669799805</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -3289,19 +3286,19 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0.8</v>
@@ -3316,13 +3313,13 @@
         <v>2</v>
       </c>
       <c r="L33">
-        <v>2.537250518798828</v>
+        <v>2.02178955078125</v>
       </c>
       <c r="M33">
-        <v>5.019664764404297</v>
+        <v>6.050825119018555</v>
       </c>
       <c r="N33">
-        <v>7.556915283203125</v>
+        <v>8.072614669799805</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3333,22 +3330,22 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>100</v>
@@ -3357,16 +3354,16 @@
         <v>3</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>2.537250518798828</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>5.019664764404297</v>
+        <v>10.24436950683594</v>
       </c>
       <c r="N34">
-        <v>7.556915283203125</v>
+        <v>10.24436950683594</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3380,13 +3377,13 @@
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -3407,10 +3404,10 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>8.998394012451172</v>
+        <v>10.24436950683594</v>
       </c>
       <c r="N35">
-        <v>8.998394012451172</v>
+        <v>10.24436950683594</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3421,16 +3418,16 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -3445,16 +3442,16 @@
         <v>3</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>3.005027770996094</v>
       </c>
       <c r="M36">
-        <v>8.998394012451172</v>
+        <v>4.998683929443359</v>
       </c>
       <c r="N36">
-        <v>8.998394012451172</v>
+        <v>8.003711700439453</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3465,16 +3462,16 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -3492,13 +3489,13 @@
         <v>2</v>
       </c>
       <c r="L37">
-        <v>2.999782562255859</v>
+        <v>3.005027770996094</v>
       </c>
       <c r="M37">
-        <v>3.995895385742188</v>
+        <v>4.998683929443359</v>
       </c>
       <c r="N37">
-        <v>6.995677947998047</v>
+        <v>8.003711700439453</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3509,22 +3506,22 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I38">
         <v>100</v>
@@ -3533,16 +3530,16 @@
         <v>3</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>2.999782562255859</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>3.995895385742188</v>
+        <v>9.993076324462891</v>
       </c>
       <c r="N38">
-        <v>6.995677947998047</v>
+        <v>9.993076324462891</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3553,13 +3550,13 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -3577,16 +3574,16 @@
         <v>3</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>9.976387023925781</v>
       </c>
       <c r="M39">
-        <v>15.03491401672363</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>15.03491401672363</v>
+        <v>9.976387023925781</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3597,22 +3594,22 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I40">
         <v>100</v>
@@ -3621,16 +3618,16 @@
         <v>3</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L40">
-        <v>9.513378143310547</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>8.572816848754883</v>
       </c>
       <c r="N40">
-        <v>9.513378143310547</v>
+        <v>8.572816848754883</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3644,13 +3641,13 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -3671,10 +3668,10 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>12.9997730255127</v>
+        <v>8.572816848754883</v>
       </c>
       <c r="N41">
-        <v>12.9997730255127</v>
+        <v>8.572816848754883</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3685,16 +3682,16 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E42" t="s">
         <v>16</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -3709,16 +3706,16 @@
         <v>3</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>3.000020980834961</v>
       </c>
       <c r="M42">
-        <v>12.9997730255127</v>
+        <v>2.000570297241211</v>
       </c>
       <c r="N42">
-        <v>12.9997730255127</v>
+        <v>5.000591278076172</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3729,16 +3726,16 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -3756,13 +3753,13 @@
         <v>2</v>
       </c>
       <c r="L43">
-        <v>3.999710083007812</v>
+        <v>3.000020980834961</v>
       </c>
       <c r="M43">
-        <v>4.033565521240234</v>
+        <v>2.000570297241211</v>
       </c>
       <c r="N43">
-        <v>8.033275604248047</v>
+        <v>5.000591278076172</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3773,22 +3770,22 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I44">
         <v>100</v>
@@ -3797,16 +3794,16 @@
         <v>3</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L44">
-        <v>3.999710083007812</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>4.033565521240234</v>
+        <v>12.00294494628906</v>
       </c>
       <c r="N44">
-        <v>8.033275604248047</v>
+        <v>12.00294494628906</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3820,16 +3817,16 @@
         <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>0.6</v>
@@ -3847,10 +3844,10 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>12.00008392333984</v>
+        <v>12.00294494628906</v>
       </c>
       <c r="N45">
-        <v>12.00008392333984</v>
+        <v>12.00294494628906</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3861,19 +3858,19 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
         <v>0.6</v>
@@ -3885,16 +3882,16 @@
         <v>3</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>2.997636795043945</v>
       </c>
       <c r="M46">
-        <v>12.00008392333984</v>
+        <v>5.015134811401367</v>
       </c>
       <c r="N46">
-        <v>12.00008392333984</v>
+        <v>8.012771606445312</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3905,19 +3902,19 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>0.6</v>
@@ -3932,13 +3929,13 @@
         <v>2</v>
       </c>
       <c r="L47">
-        <v>3.031730651855469</v>
+        <v>2.997636795043945</v>
       </c>
       <c r="M47">
-        <v>4.981517791748047</v>
+        <v>5.015134811401367</v>
       </c>
       <c r="N47">
-        <v>8.013248443603516</v>
+        <v>8.012771606445312</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3949,22 +3946,22 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I48">
         <v>100</v>
@@ -3973,16 +3970,16 @@
         <v>3</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L48">
-        <v>3.031730651855469</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>4.981517791748047</v>
+        <v>7.03120231628418</v>
       </c>
       <c r="N48">
-        <v>8.013248443603516</v>
+        <v>7.03120231628418</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3993,13 +3990,13 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E49" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -4017,16 +4014,16 @@
         <v>3</v>
       </c>
       <c r="K49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>8.997678756713867</v>
       </c>
       <c r="M49">
-        <v>10.99991798400879</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>10.99991798400879</v>
+        <v>8.997678756713867</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -4040,19 +4037,19 @@
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E50" t="s">
         <v>16</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>100</v>
@@ -4067,10 +4064,10 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>10.99991798400879</v>
+        <v>8.00013542175293</v>
       </c>
       <c r="N50">
-        <v>10.99991798400879</v>
+        <v>8.00013542175293</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -4081,22 +4078,22 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>100</v>
@@ -4105,16 +4102,16 @@
         <v>3</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L51">
-        <v>3.013134002685547</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>3.988265991210938</v>
+        <v>8.00013542175293</v>
       </c>
       <c r="N51">
-        <v>7.001399993896484</v>
+        <v>8.00013542175293</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -4125,22 +4122,22 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E52" t="s">
         <v>16</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>100</v>
@@ -4152,13 +4149,13 @@
         <v>2</v>
       </c>
       <c r="L52">
-        <v>3.013134002685547</v>
+        <v>3.009796142578125</v>
       </c>
       <c r="M52">
-        <v>3.988265991210938</v>
+        <v>3.986358642578125</v>
       </c>
       <c r="N52">
-        <v>7.001399993896484</v>
+        <v>6.99615478515625</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -4169,16 +4166,16 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E53" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
@@ -4193,148 +4190,16 @@
         <v>3</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>3.009796142578125</v>
       </c>
       <c r="M53">
-        <v>7.001161575317383</v>
+        <v>3.986358642578125</v>
       </c>
       <c r="N53">
-        <v>7.001161575317383</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54">
-        <v>2</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54">
-        <v>100</v>
-      </c>
-      <c r="J54">
-        <v>3</v>
-      </c>
-      <c r="K54">
-        <v>3</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>7.001161575317383</v>
-      </c>
-      <c r="N54">
-        <v>7.001161575317383</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>100</v>
-      </c>
-      <c r="J55">
-        <v>3</v>
-      </c>
-      <c r="K55">
-        <v>2</v>
-      </c>
-      <c r="L55">
-        <v>2.000331878662109</v>
-      </c>
-      <c r="M55">
-        <v>4.015445709228516</v>
-      </c>
-      <c r="N55">
-        <v>6.015777587890625</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56">
-        <v>2</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>100</v>
-      </c>
-      <c r="J56">
-        <v>3</v>
-      </c>
-      <c r="K56">
-        <v>2</v>
-      </c>
-      <c r="L56">
-        <v>2.000331878662109</v>
-      </c>
-      <c r="M56">
-        <v>4.015445709228516</v>
-      </c>
-      <c r="N56">
-        <v>6.015777587890625</v>
+        <v>6.99615478515625</v>
       </c>
     </row>
   </sheetData>
@@ -4381,15 +4246,15 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="D2">
-        <v>1.733333333333333</v>
+        <v>1.6</v>
       </c>
       <c r="E2">
-        <v>14.09177780151367</v>
+        <v>11.87342007954915</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -4398,10 +4263,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.933333333333333</v>
+        <v>1.866666666666667</v>
       </c>
       <c r="E3">
-        <v>9.0635617574056</v>
+        <v>8.52049191792806</v>
       </c>
     </row>
   </sheetData>
